--- a/Base/Teams/Texans/Target Depth Data.xlsx
+++ b/Base/Teams/Texans/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="C2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>27</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="C2">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/Base/Teams/Texans/Target Depth Data.xlsx
+++ b/Base/Teams/Texans/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="C2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/Base/Teams/Texans/Target Depth Data.xlsx
+++ b/Base/Teams/Texans/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="C3">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="C3">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Texans/Target Depth Data.xlsx
+++ b/Base/Teams/Texans/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="C2">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="C2">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Texans/Target Depth Data.xlsx
+++ b/Base/Teams/Texans/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="C3">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C3">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Texans/Target Depth Data.xlsx
+++ b/Base/Teams/Texans/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="C2">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="C2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>4</v>
